--- a/output.xlsx
+++ b/output.xlsx
@@ -453,143 +453,143 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13/03/2024 - S1</t>
+          <t>14/03/2024 - S1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>16.87</t>
+          <t>19.45</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13/03/2024 - S2</t>
+          <t>14/03/2024 - S2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>20.44</t>
+          <t>24.12</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>13/03/2024 - S3</t>
+          <t>15/03/2024 - S1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>68.30</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>22.22</t>
+          <t>86.59</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>14/03/2024 - S1</t>
+          <t>15/03/2024 - S3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>19.45</t>
+          <t>78.12</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>14/03/2024 - S2</t>
+          <t>16/03/2024 - S1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24.12</t>
+          <t>19.34</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15/03/2024 - S1</t>
+          <t>16/03/2024 - S2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>68.30</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>86.59</t>
+          <t>30.06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15/03/2024 - S3</t>
+          <t>16/03/2024 - S3</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>78.12</t>
+          <t>26.55</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16/03/2024 - S1</t>
+          <t>17/03/2024 - S1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>19.34</t>
+          <t>19.43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16/03/2024 - S2</t>
+          <t>17/03/2024 - S2</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -599,48 +599,48 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>30.06</t>
+          <t>26.95</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16/03/2024 - S3</t>
+          <t>17/03/2024 - S3</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>26.55</t>
+          <t>19.09</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>17/03/2024 - S1</t>
+          <t>18/03/2024 - S1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>5.30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>19.43</t>
+          <t>17.61</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>17/03/2024 - S2</t>
+          <t>18/03/2024 - S2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,48 +650,48 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>26.95</t>
+          <t>30.38</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17/03/2024 - S3</t>
+          <t>18/03/2024 - S3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>19.09</t>
+          <t>23.56</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18/03/2024 - S1</t>
+          <t>19/03/2024 - S1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5.30</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>17.61</t>
+          <t>21.17</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>18/03/2024 - S2</t>
+          <t>19/03/2024 - S2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -701,41 +701,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>30.38</t>
+          <t>28.92</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18/03/2024 - S3</t>
+          <t>19/03/2024 - S3</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>23.56</t>
+          <t>25.77</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>19/03/2024 - S1</t>
+          <t>20/03/2024 - S1</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>21.17</t>
+          <t>23.05</t>
         </is>
       </c>
     </row>
